--- a/Glossário de termos usados em traduções - Rodrigo.xlsx
+++ b/Glossário de termos usados em traduções - Rodrigo.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="10920" windowHeight="7800" tabRatio="270"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="10920" windowHeight="7180" tabRatio="270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Anotações" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$53</definedName>
-    <definedName name="Z_B749830D_ADFD_459A_9E5C_5BF5FC9ACF61_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$D:$E</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$81</definedName>
     <definedName name="Z_B749830D_ADFD_459A_9E5C_5BF5FC9ACF61_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$2:$F$53</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="291">
   <si>
     <t>住民票</t>
   </si>
@@ -368,10 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Plano Básico da Província de Shiga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国際人権規約</t>
     <rPh sb="0" eb="2">
       <t>コクサイ</t>
@@ -1238,6 +1233,334 @@
   </si>
   <si>
     <t>Divisão de Regulamentação Médica e Farmacêutica da Província de Shiga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奨学金</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうがくきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸与</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給付</t>
+    <rPh sb="0" eb="2">
+      <t>キュウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bolsa ou empréstimo estudantil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活保護</t>
+    <rPh sb="0" eb="2">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいかつほご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auxílio subsistência</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀県奨学金貸与条例</t>
+    <rPh sb="0" eb="3">
+      <t>シガケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウガクキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイヨ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀県奨学金貸与条例施行規則</t>
+    <rPh sb="0" eb="3">
+      <t>シガケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウガクキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイヨ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しがけんしょうがくきんじょうれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しがけんしょうがくきんじょうれいしこうきそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regulamentação das Normas do Decreto Relativo ao Empréstimo do Auxílio Financeiro Estudantil da Província de Shiga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normas do Decreto Relativo ao Empréstimo do Auxílio Financeiro Estudantil da Província de Shiga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Empréstimo (estudantil)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Benefício (bolsa estudantil sem necessidade de reembolso)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nota promissória</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金借用証書</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきんしゃくようしょうしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>源泉所得税</t>
+    <rPh sb="0" eb="5">
+      <t>ゲンセンショトクゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんせんしょとくぜい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imposto de renda na fonte (IRF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所得税</t>
+    <rPh sb="0" eb="3">
+      <t>ショトクゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょとくぜい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imposto de renda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所得税法</t>
+    <rPh sb="0" eb="2">
+      <t>ショトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょとくぜいほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lei de imposto de renda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diretrizes Básicas da Província de Shiga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"奨学金" é traduzido como "bolsa", mas em japonês pode ser tanto bolsa como empréstimo. É preciso distinguir entre "給付 "(bolsa) e "貸与" (empréstimo)</t>
+    <rPh sb="1" eb="4">
+      <t>ショウガクキン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>キュウフ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>タイヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住民</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうみん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cidadão ou morador</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幼少中教育課</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようしょうちゅうきょういくか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divisão de Educação Pré-escolar e Fundamental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀県総合政策部防災危機管理局原子力防災室</t>
+    <rPh sb="0" eb="21">
+      <t>シガケンソウゴウセイサクブボウサイキキカンリキョクゲンシリョクボウサイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シガケンソウゴウセイサクブボウサイキキカンリキョクゲンシリョクボウサイシツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Para verificar o furigana de qualquer kanji no Excel, selecione a célula e clique alt+shift+↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Furigana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Escritório de prevenção a acidentes nucleares - Departamento de Gerenciamento de Desastres e Crises - Secretaria de Planejamento de Políticas e Coordenação</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民健康保険</t>
+    <rPh sb="0" eb="2">
+      <t>コクミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくみんけんこうほけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seguro Nacional de Saúde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国民年金</t>
+    <rPh sb="0" eb="2">
+      <t>コクミン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくみんねんきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plano de Pensão Nacional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚生年金</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイネンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうせいねんきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plano de Pensão Previdênciária</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主幹</t>
+    <rPh sb="0" eb="2">
+      <t>シュカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chefe de planejamento</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1245,7 +1568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,6 +1630,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1333,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,6 +1696,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,15 +1729,43 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C345423-DBDB-4B29-BA3A-ABB6A56E5A5A}" diskRevisions="1" revisionId="3" version="2" preserveHistory="60">
-  <header guid="{E0BA41CB-A085-4549-8252-1B3F61F1D292}" dateTime="2016-01-26T13:24:48" maxSheetId="4" userName="CIR-BR" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F50F7C9E-4D88-4A1F-AACF-0D7DE5E985EB}" diskRevisions="1" revisionId="87" version="18" preserveHistory="60">
+  <header guid="{EF858A25-05B2-40A8-9A79-56BBEDA285F1}" dateTime="2016-07-19T16:32:30" maxSheetId="4" userName="CIR-BR" r:id="rId13" minRId="63" maxRId="69">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{5C345423-DBDB-4B29-BA3A-ABB6A56E5A5A}" dateTime="2016-01-26T13:25:54" maxSheetId="4" userName="CIR-BR" r:id="rId2" minRId="1" maxRId="3">
+  <header guid="{7E338715-E5C5-40CE-A041-EC5A4391B2A3}" dateTime="2016-07-20T15:57:12" maxSheetId="4" userName="CIR-BR" r:id="rId14" minRId="70">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B05E9D7B-0BA2-4F92-818A-297107DA0C72}" dateTime="2016-08-31T16:14:25" maxSheetId="4" userName="CIR-BR" r:id="rId15" minRId="71" maxRId="78">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4C2C7DB7-CE27-4997-AE6C-AECAB38756F9}" dateTime="2016-09-01T15:14:51" maxSheetId="4" userName="CIR-BR" r:id="rId16" minRId="79" maxRId="82">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F6873F60-C5DE-43FD-84B3-4782688A072A}" dateTime="2016-09-05T14:58:13" maxSheetId="4" userName="CIR-BR" r:id="rId17" minRId="83" maxRId="86">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F50F7C9E-4D88-4A1F-AACF-0D7DE5E985EB}" dateTime="2016-09-05T16:31:07" maxSheetId="4" userName="CIR-BR" r:id="rId18">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1402,43 +1776,271 @@
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{B749830D-ADFD-459A-9E5C-5BF5FC9ACF61}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_B749830D_ADFD_459A_9E5C_5BF5FC9ACF61_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$2:$F$53</formula>
+    <oldFormula>Sheet1!$A$2:$F$53</oldFormula>
+  </rdn>
+  <rcv guid="{B749830D-ADFD-459A-9E5C-5BF5FC9ACF61}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <oc r="A65" t="inlineStr">
+  <rrc rId="63" sId="1" eol="1" ref="A77:XFD77" action="insertRow"/>
+  <rcc rId="64" sId="1">
+    <nc r="C77" t="inlineStr">
       <is>
-        <t>労働基準監督署</t>
+        <t>Escritório de prevenção a desastres nucleares - Departamento de Gerenciamento de Desastres e Crises - Secretaria de Planejamento de Políticas e Coordenação</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="1">
+    <nc r="A77" t="inlineStr">
+      <is>
+        <t>滋賀県総合政策部防災危機管理局原子力防災室</t>
+        <rPh sb="0" eb="21">
+          <t>シガケンソウゴウセイサクブボウサイキキカンリキョクゲンシリョクボウサイシツ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="1">
+    <nc r="B77" t="inlineStr">
+      <is>
+        <t>シガケンソウゴウセイサクブボウサイキキカンリキョクゲンシリョクボウサイシツ</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B77">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="67" sId="3">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Para verificar o furigana de qualquer kanji no Excel, selecione a célula e clique alt+shift+↑</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="68" sheetId="3" source="A1" destination="B1" sourceSheetId="3"/>
+  <rcc rId="69" sId="3">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Furigana</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="A1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="70" sId="1">
+    <oc r="C77" t="inlineStr">
+      <is>
+        <t>Escritório de prevenção a desastres nucleares - Departamento de Gerenciamento de Desastres e Crises - Secretaria de Planejamento de Políticas e Coordenação</t>
         <phoneticPr fontId="0"/>
       </is>
     </oc>
-    <nc r="A65"/>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <oc r="B65" t="inlineStr">
+    <nc r="C77" t="inlineStr">
       <is>
-        <t>ろうどうきほんかんとくしょ</t>
+        <t>Escritório de prevenção a acidentes nucleares - Departamento de Gerenciamento de Desastres e Crises - Secretaria de Planejamento de Políticas e Coordenação</t>
         <phoneticPr fontId="0"/>
       </is>
-    </oc>
-    <nc r="B65"/>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <oc r="C65" t="inlineStr">
-      <is>
-        <t>Inspetoria de Normas Trabalhistas</t>
-        <phoneticPr fontId="0"/>
-      </is>
-    </oc>
-    <nc r="C65"/>
+    </nc>
   </rcc>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="71" sId="1" eol="1" ref="A78:XFD78" action="insertRow"/>
+  <rcc rId="72" sId="1">
+    <nc r="A78" t="inlineStr">
+      <is>
+        <t>国民健康保険</t>
+        <rPh sb="0" eb="2">
+          <t>コクミン</t>
+        </rPh>
+        <rPh sb="2" eb="4">
+          <t>ケンコウ</t>
+        </rPh>
+        <rPh sb="4" eb="6">
+          <t>ホケン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <nc r="B78" t="inlineStr">
+      <is>
+        <t>こくみんけんこうほけん</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B78">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="74" sId="1">
+    <nc r="C78" t="inlineStr">
+      <is>
+        <t>Seguro Nacional de Saúde</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="75" sId="1" eol="1" ref="A79:XFD79" action="insertRow"/>
+  <rcc rId="76" sId="1">
+    <nc r="A79" t="inlineStr">
+      <is>
+        <t>国民年金</t>
+        <rPh sb="0" eb="2">
+          <t>コクミン</t>
+        </rPh>
+        <rPh sb="2" eb="4">
+          <t>ネンキン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="1">
+    <nc r="B79" t="inlineStr">
+      <is>
+        <t>こくみんねんきん</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B79">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="78" sId="1">
+    <nc r="C79" t="inlineStr">
+      <is>
+        <t>Plano de Pensão Nacional</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="79" sId="1" eol="1" ref="A80:XFD80" action="insertRow"/>
+  <rcc rId="80" sId="1">
+    <nc r="A80" t="inlineStr">
+      <is>
+        <t>厚生年金</t>
+        <rPh sb="0" eb="4">
+          <t>コウセイネンキン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="1">
+    <nc r="B80" t="inlineStr">
+      <is>
+        <t>こうせいねんきん</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B80">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="82" sId="1">
+    <nc r="C80" t="inlineStr">
+      <is>
+        <t>Plano de Pensão Previdênciária</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="83" sId="1" eol="1" ref="A81:XFD81" action="insertRow"/>
+  <rcc rId="84" sId="1">
+    <nc r="A81" t="inlineStr">
+      <is>
+        <t>主幹</t>
+        <rPh sb="0" eb="2">
+          <t>シュカン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="1">
+    <nc r="B81" t="inlineStr">
+      <is>
+        <t>しゅかん</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B81">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="86" sId="1">
+    <nc r="C81" t="inlineStr">
+      <is>
+        <t>Chefe de planejamento</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{4C2C7DB7-CE27-4997-AE6C-AECAB38756F9}" name="CIR-BR" id="-747678507" dateTime="2016-08-31T15:30:12"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,58 +2330,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.90625" customWidth="1"/>
     <col min="3" max="3" width="79.6328125" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="143.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1870,46 +2476,46 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
         <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,747 +2537,942 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>217</v>
+      <c r="A18" t="s">
+        <v>285</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" t="s">
-        <v>233</v>
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>230</v>
       </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>112</v>
+        <v>231</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>263</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
+        <v>246</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>223</v>
+      <c r="A30" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" t="s">
-        <v>224</v>
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C46" t="s">
         <v>203</v>
       </c>
-      <c r="C31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C48" t="s">
         <v>162</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>149</v>
+        <v>220</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>149</v>
+        <v>208</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>7</v>
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>180</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>4</v>
+      <c r="A55" t="s">
+        <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>82</v>
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
+      <c r="A57" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>30</v>
+      <c r="A58" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="F62" t="s">
-        <v>211</v>
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>127</v>
+      <c r="A63" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" t="s">
-        <v>157</v>
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:F53">
-    <sortState ref="A3:F65">
-      <sortCondition ref="A2:A53"/>
+  <autoFilter ref="A2:F81">
+    <sortState ref="A3:F81">
+      <sortCondition ref="A2:A81"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:F20">
     <sortCondition ref="A2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{B749830D-ADFD-459A-9E5C-5BF5FC9ACF61}" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="B59" sqref="B59"/>
+    <customSheetView guid="{B749830D-ADFD-459A-9E5C-5BF5FC9ACF61}" showAutoFilter="1" topLeftCell="A58">
+      <selection activeCell="B79" sqref="B79"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:F53">
-        <sortState ref="A3:F65">
-          <sortCondition ref="A2:A53"/>
+      <autoFilter ref="A2:F81">
+        <sortState ref="A3:F70">
+          <sortCondition ref="A2:A70"/>
         </sortState>
       </autoFilter>
     </customSheetView>
@@ -2686,7 +3487,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId2"/>
+    <hyperlink ref="D48" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2713,18 +3514,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
   <customSheetViews>
     <customSheetView guid="{B749830D-ADFD-459A-9E5C-5BF5FC9ACF61}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/wsSortMap1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheetSortMap xmlns="http://schemas.microsoft.com/office/excel/2006/main">
+  <rowSortMap ref="A14:XFD81" count="68">
+    <row newVal="13" oldVal="66"/>
+    <row newVal="14" oldVal="13"/>
+    <row newVal="15" oldVal="14"/>
+    <row newVal="16" oldVal="71"/>
+    <row newVal="17" oldVal="79"/>
+    <row newVal="18" oldVal="15"/>
+    <row newVal="19" oldVal="16"/>
+    <row newVal="20" oldVal="77"/>
+    <row newVal="21" oldVal="78"/>
+    <row newVal="22" oldVal="17"/>
+    <row newVal="23" oldVal="18"/>
+    <row newVal="24" oldVal="19"/>
+    <row newVal="25" oldVal="20"/>
+    <row newVal="26" oldVal="68"/>
+    <row newVal="27" oldVal="69"/>
+    <row newVal="28" oldVal="76"/>
+    <row newVal="29" oldVal="21"/>
+    <row newVal="30" oldVal="70"/>
+    <row newVal="31" oldVal="22"/>
+    <row newVal="32" oldVal="23"/>
+    <row newVal="33" oldVal="24"/>
+    <row newVal="34" oldVal="25"/>
+    <row newVal="35" oldVal="26"/>
+    <row newVal="36" oldVal="27"/>
+    <row newVal="37" oldVal="80"/>
+    <row newVal="38" oldVal="28"/>
+    <row newVal="39" oldVal="64"/>
+    <row newVal="40" oldVal="29"/>
+    <row newVal="41" oldVal="72"/>
+    <row newVal="42" oldVal="73"/>
+    <row newVal="43" oldVal="67"/>
+    <row newVal="44" oldVal="30"/>
+    <row newVal="45" oldVal="31"/>
+    <row newVal="46" oldVal="65"/>
+    <row newVal="47" oldVal="32"/>
+    <row newVal="48" oldVal="33"/>
+    <row newVal="49" oldVal="34"/>
+    <row newVal="50" oldVal="35"/>
+    <row newVal="51" oldVal="36"/>
+    <row newVal="52" oldVal="37"/>
+    <row newVal="53" oldVal="38"/>
+    <row newVal="54" oldVal="39"/>
+    <row newVal="55" oldVal="40"/>
+    <row newVal="56" oldVal="41"/>
+    <row newVal="57" oldVal="42"/>
+    <row newVal="58" oldVal="43"/>
+    <row newVal="59" oldVal="44"/>
+    <row newVal="60" oldVal="45"/>
+    <row newVal="61" oldVal="46"/>
+    <row newVal="62" oldVal="47"/>
+    <row newVal="63" oldVal="48"/>
+    <row newVal="64" oldVal="49"/>
+    <row newVal="65" oldVal="50"/>
+    <row newVal="66" oldVal="51"/>
+    <row newVal="67" oldVal="74"/>
+    <row newVal="68" oldVal="52"/>
+    <row newVal="69" oldVal="53"/>
+    <row newVal="70" oldVal="54"/>
+    <row newVal="71" oldVal="55"/>
+    <row newVal="72" oldVal="56"/>
+    <row newVal="73" oldVal="57"/>
+    <row newVal="74" oldVal="58"/>
+    <row newVal="75" oldVal="59"/>
+    <row newVal="76" oldVal="60"/>
+    <row newVal="77" oldVal="61"/>
+    <row newVal="78" oldVal="62"/>
+    <row newVal="79" oldVal="75"/>
+    <row newVal="80" oldVal="63"/>
+  </rowSortMap>
+</worksheetSortMap>
 </file>